--- a/Физика/лабы/1.05.xlsx
+++ b/Физика/лабы/1.05.xlsx
@@ -1,31 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5087B3D3-A41A-4E60-B99E-43FE31361B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0" shapeId="0">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -39,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -53,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0" shapeId="0">
+    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -68,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G13" authorId="0" shapeId="0">
+    <comment ref="G13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -83,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I13" authorId="0" shapeId="0">
+    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -103,12 +116,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -123,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -138,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="0" shapeId="0">
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -158,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>положение 0</t>
   </si>
@@ -254,12 +267,61 @@
   <si>
     <t>l0</t>
   </si>
+  <si>
+    <t>t, c</t>
+  </si>
+  <si>
+    <t>А, °</t>
+  </si>
+  <si>
+    <r>
+      <t>ln(A/A</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>t^2</t>
+  </si>
+  <si>
+    <t>t*a</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,6 +357,30 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -304,7 +390,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -375,20 +461,106 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -491,7 +663,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -526,6 +698,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Лист1!$B$11:$F$11</c:f>
@@ -533,19 +719,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>50.449999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>94.660000000000011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>154.24333333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>249.37</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>309.52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -709,7 +895,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -747,7 +933,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="253669968"/>
@@ -833,7 +1019,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -871,7 +1057,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="253670384"/>
@@ -912,7 +1098,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -957,17 +1143,25 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Зависимость квадрата периода от момента инерции </a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>ln(A/A0)</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>T^2(I)</a:t>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> = -</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" baseline="0"/>
+              <a:t>β</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>t</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -993,7 +1187,377 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист3!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист3!$A$17:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>154.24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>249.37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>309.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист3!$B$17:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8.0042707673536495E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.16705408466316621</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.262364264467491</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.48550781578170077</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.61903920840622328</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-41D5-425E-B78B-41F08D51E725}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="95284559"/>
+        <c:axId val="95285519"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="95284559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="95285519"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="95285519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="95284559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Зависимость квадрата периода от момента инерции </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>T^2(I)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1035,22 +1599,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8.0000000000000002E-3</c:v>
+                  <c:v>3.1905127999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0000000000000002E-3</c:v>
+                  <c:v>3.5556727999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0000000000000002E-3</c:v>
+                  <c:v>4.0228328000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0000000000000002E-3</c:v>
+                  <c:v>4.5919927999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.0000000000000002E-3</c:v>
+                  <c:v>5.263152799999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.0000000000000002E-3</c:v>
+                  <c:v>6.0363127999999988E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1062,22 +1626,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.8888667777777779</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.0113817777777787</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3.396649</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3.8599151111111105</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4.4156017777777796</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5.0235751111111133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1160,7 +1724,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1186,7 +1749,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1224,7 +1787,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="252433136"/>
@@ -1278,7 +1841,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1304,7 +1866,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1342,7 +1904,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="252434384"/>
@@ -1383,7 +1945,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1474,6 +2036,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1991,6 +2593,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2523,7 +3641,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2550,7 +3674,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2836,6 +3966,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>458348</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>72349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>490773</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>59379</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C10C6B9B-3ADF-1320-2BAF-57532BD5F811}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -2849,7 +4020,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2879,7 +4056,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3167,20 +4350,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:F19"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.86328125" customWidth="1"/>
+    <col min="5" max="5" width="8.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3197,18 +4380,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="e">
+      <c r="B3" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>19.010000000000002</v>
+      </c>
+      <c r="D3" s="1">
+        <v>18.059999999999999</v>
+      </c>
+      <c r="E3" s="1">
         <f>AVERAGE(B3:D3)/10</f>
-        <v>#DIV/0!</v>
+        <v>1.8523333333333336</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <f>AVERAGE(B3:D3)</f>
+        <v>18.523333333333337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -3228,72 +4422,102 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="B8" s="1">
+        <v>48.82</v>
+      </c>
+      <c r="C8" s="1">
+        <v>94.19</v>
+      </c>
+      <c r="D8" s="1">
+        <v>152.66</v>
+      </c>
+      <c r="E8" s="1">
+        <v>243.3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>311.58999999999997</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="B9" s="1">
+        <v>50.15</v>
+      </c>
+      <c r="C9" s="1">
+        <v>86.57</v>
+      </c>
+      <c r="D9" s="1">
+        <v>156.56</v>
+      </c>
+      <c r="E9" s="1">
+        <v>243.41</v>
+      </c>
+      <c r="F9" s="1">
+        <v>308.51</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="I10" s="4" t="s">
+      <c r="B10" s="1">
+        <v>52.38</v>
+      </c>
+      <c r="C10" s="1">
+        <v>103.22</v>
+      </c>
+      <c r="D10" s="1">
+        <v>153.51</v>
+      </c>
+      <c r="E10" s="1">
+        <v>261.39999999999998</v>
+      </c>
+      <c r="F10" s="1">
+        <v>308.45999999999998</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>25</v>
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="1" t="e">
+      <c r="B11" s="1">
         <f>AVERAGE(B8:B10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C11" s="1" t="e">
+        <v>50.449999999999996</v>
+      </c>
+      <c r="C11" s="1">
         <f>AVERAGE(C8:C10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D11" s="1" t="e">
+        <v>94.660000000000011</v>
+      </c>
+      <c r="D11" s="1">
         <f>AVERAGE(D8:D10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E11" s="1" t="e">
+        <v>154.24333333333334</v>
+      </c>
+      <c r="E11" s="1">
         <f>AVERAGE(E8:E10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F11" s="1" t="e">
+        <v>249.37</v>
+      </c>
+      <c r="F11" s="1">
         <f>AVERAGE(F8:F10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="3"/>
+        <v>309.52</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I12" s="7"/>
-      <c r="J12" s="3"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I12" s="5"/>
+      <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -3303,7 +4527,7 @@
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -3313,100 +4537,136 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="e">
+      <c r="B14" s="1">
+        <v>17.440000000000001</v>
+      </c>
+      <c r="C14" s="1">
+        <v>16.559999999999999</v>
+      </c>
+      <c r="D14" s="1">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="E14" s="1">
         <f>AVERAGE(B14:D14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F14" s="1" t="e">
+        <v>16.996666666666666</v>
+      </c>
+      <c r="F14" s="1">
         <f>E14/10</f>
-        <v>#DIV/0!</v>
+        <v>1.6996666666666667</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="e">
+      <c r="B15" s="1">
+        <v>17.29</v>
+      </c>
+      <c r="C15" s="1">
+        <v>17.41</v>
+      </c>
+      <c r="D15" s="1">
+        <v>17.36</v>
+      </c>
+      <c r="E15" s="1">
         <f t="shared" ref="E15:E19" si="0">AVERAGE(B15:D15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" s="1" t="e">
+        <v>17.353333333333335</v>
+      </c>
+      <c r="F15" s="1">
         <f t="shared" ref="F15:F19" si="1">E15/10</f>
-        <v>#DIV/0!</v>
+        <v>1.7353333333333336</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1" t="e">
+      <c r="B16" s="1">
+        <v>18.48</v>
+      </c>
+      <c r="C16" s="1">
+        <v>18.48</v>
+      </c>
+      <c r="D16" s="1">
+        <v>18.329999999999998</v>
+      </c>
+      <c r="E16" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="1" t="e">
+        <v>18.43</v>
+      </c>
+      <c r="F16" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.843</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="e">
+      <c r="B17" s="1">
+        <v>19.760000000000002</v>
+      </c>
+      <c r="C17" s="1">
+        <v>19.73</v>
+      </c>
+      <c r="D17" s="1">
+        <v>19.45</v>
+      </c>
+      <c r="E17" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F17" s="1" t="e">
+        <v>19.646666666666665</v>
+      </c>
+      <c r="F17" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.9646666666666666</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1" t="e">
+      <c r="B18" s="1">
+        <v>20.87</v>
+      </c>
+      <c r="C18" s="1">
+        <v>21.12</v>
+      </c>
+      <c r="D18" s="1">
+        <v>21.05</v>
+      </c>
+      <c r="E18" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F18" s="1" t="e">
+        <v>21.013333333333335</v>
+      </c>
+      <c r="F18" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.1013333333333337</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1" t="e">
+      <c r="B19" s="1">
+        <v>22.52</v>
+      </c>
+      <c r="C19" s="1">
+        <v>22.3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>22.42</v>
+      </c>
+      <c r="E19" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="1" t="e">
+        <v>22.413333333333338</v>
+      </c>
+      <c r="F19" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.2413333333333338</v>
       </c>
     </row>
   </sheetData>
@@ -3418,16 +4678,255 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3EF7D7-A467-41F9-B6E9-79A4BE20B001}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView zoomScale="112" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="9">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11">
+        <f>A2*A2</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="10">
+        <v>35</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0</v>
+      </c>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="12">
+        <v>50.45</v>
+      </c>
+      <c r="B3" s="11">
+        <f t="shared" ref="B3:B7" si="0">A3*A3</f>
+        <v>2545.2025000000003</v>
+      </c>
+      <c r="C3" s="10">
+        <v>25</v>
+      </c>
+      <c r="D3" s="11">
+        <f>LN(C3/$H$1)</f>
+        <v>-0.33647223662121289</v>
+      </c>
+      <c r="E3" s="15">
+        <f>A3*D3</f>
+        <v>-16.975024337540191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="12">
+        <v>94.66</v>
+      </c>
+      <c r="B4" s="11">
+        <f t="shared" si="0"/>
+        <v>8960.5155999999988</v>
+      </c>
+      <c r="C4" s="10">
+        <v>20</v>
+      </c>
+      <c r="D4" s="11">
+        <f t="shared" ref="D4:D7" si="1">LN(C4/$H$1)</f>
+        <v>-0.55961578793542277</v>
+      </c>
+      <c r="E4" s="15">
+        <f t="shared" ref="E4:E7" si="2">A4*D4</f>
+        <v>-52.973230485967115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="12">
+        <v>154.24</v>
+      </c>
+      <c r="B5" s="11">
+        <f t="shared" si="0"/>
+        <v>23789.977600000002</v>
+      </c>
+      <c r="C5" s="10">
+        <v>15</v>
+      </c>
+      <c r="D5" s="11">
+        <f t="shared" si="1"/>
+        <v>-0.84729786038720367</v>
+      </c>
+      <c r="E5" s="15">
+        <f t="shared" si="2"/>
+        <v>-130.6872219861223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="12">
+        <v>249.37</v>
+      </c>
+      <c r="B6" s="11">
+        <f t="shared" si="0"/>
+        <v>62185.3969</v>
+      </c>
+      <c r="C6" s="10">
+        <v>10</v>
+      </c>
+      <c r="D6" s="11">
+        <f t="shared" si="1"/>
+        <v>-1.2527629684953681</v>
+      </c>
+      <c r="E6" s="15">
+        <f t="shared" si="2"/>
+        <v>-312.40150145368995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="12">
+        <v>309.52</v>
+      </c>
+      <c r="B7" s="11">
+        <f t="shared" si="0"/>
+        <v>95802.630399999995</v>
+      </c>
+      <c r="C7" s="10">
+        <v>5</v>
+      </c>
+      <c r="D7" s="11">
+        <f t="shared" si="1"/>
+        <v>-1.9459101490553135</v>
+      </c>
+      <c r="E7" s="15">
+        <f t="shared" si="2"/>
+        <v>-602.29810933560054</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <f>SUM(A3:A7)</f>
+        <v>858.24</v>
+      </c>
+      <c r="B8">
+        <f>SUM(B3:B7)</f>
+        <v>193283.723</v>
+      </c>
+      <c r="D8" s="14">
+        <f>SUM(D3:D7)</f>
+        <v>-4.9420590024945206</v>
+      </c>
+      <c r="E8" s="15">
+        <f>SUM(E3:E7)</f>
+        <v>-1115.3350875989199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C10">
+        <f>E8/B8</f>
+        <v>-5.7704553197111168E-3</v>
+      </c>
+      <c r="D10">
+        <f>1/C10</f>
+        <v>-173.29655020187602</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="9">
+        <v>0</v>
+      </c>
+      <c r="B17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="12">
+        <v>50.45</v>
+      </c>
+      <c r="B18" s="11">
+        <v>-8.0042707673536495E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="12">
+        <v>94.66</v>
+      </c>
+      <c r="B19" s="11">
+        <v>-0.16705408466316621</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="12">
+        <v>154.24</v>
+      </c>
+      <c r="B20" s="11">
+        <v>-0.262364264467491</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="12">
+        <v>249.37</v>
+      </c>
+      <c r="B21" s="11">
+        <v>-0.48550781578170077</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="12">
+        <v>309.52</v>
+      </c>
+      <c r="B22" s="11">
+        <v>-0.61903920840622328</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:C16"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -3450,19 +4949,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="16">
         <f>H3+J3/2</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
@@ -3473,180 +4972,186 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="16">
         <f>H3+5*I3+J3/2</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+        <v>0.20199999999999999</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="1">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="1">
         <f>H3+J3/2</f>
-        <v>0</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="C4" s="1">
         <f>H3+I3+J3/2</f>
-        <v>0</v>
+        <v>0.10200000000000001</v>
       </c>
       <c r="D4" s="1">
         <f>H3+2*I3+J3/2</f>
-        <v>0</v>
+        <v>0.127</v>
       </c>
       <c r="E4" s="1">
         <f>H3+3*I3+J3/2</f>
-        <v>0</v>
+        <v>0.152</v>
       </c>
       <c r="F4" s="1">
         <f>H3+4*I3+J3/2</f>
-        <v>0</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="G4" s="1">
         <f>H3+5*I3+J3/2</f>
-        <v>0</v>
+        <v>0.20199999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="1">
         <f>0.408*($B$2^2+$B$3^2+2*B4^2)</f>
-        <v>0</v>
+        <v>2.3905127999999998E-2</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:G5" si="0">0.408*($B$2^2+$B$3^2+2*C4^2)</f>
-        <v>0</v>
+        <v>2.7556727999999999E-2</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.2228328000000001E-2</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.7919927999999999E-2</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.463152799999999E-2</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.2363127999999988E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="1">
         <f>B5+0.008</f>
-        <v>8.0000000000000002E-3</v>
+        <v>3.1905127999999998E-2</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" ref="C6:G6" si="1">C5+0.008</f>
-        <v>8.0000000000000002E-3</v>
+        <v>3.5556727999999996E-2</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>8.0000000000000002E-3</v>
+        <v>4.0228328000000001E-2</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="1"/>
-        <v>8.0000000000000002E-3</v>
+        <v>4.5919927999999999E-2</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="1"/>
-        <v>8.0000000000000002E-3</v>
+        <v>5.263152799999999E-2</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="1"/>
-        <v>8.0000000000000002E-3</v>
+        <v>6.0363127999999988E-2</v>
       </c>
       <c r="H6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1" t="e">
+      <c r="B7" s="1">
         <f>10*G11/4/PI()^2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C7" s="1" t="e">
+        <v>0.73175850327367709</v>
+      </c>
+      <c r="C7" s="1">
         <f>10*G12/4/PI()^2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D7" s="1" t="e">
+        <v>0.76279191530852986</v>
+      </c>
+      <c r="D7" s="1">
         <f>10*G13/4/PI()^2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E7" s="1" t="e">
+        <v>0.86038124274390748</v>
+      </c>
+      <c r="E7" s="1">
         <f>10*G14/4/PI()^2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" s="1" t="e">
+        <v>0.9777279195418086</v>
+      </c>
+      <c r="F7" s="1">
         <f>10*G15/4/PI()^2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G7" s="1" t="e">
+        <v>1.118484996544139</v>
+      </c>
+      <c r="G7" s="1">
         <f>10*G16/4/PI()^2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H7" t="e">
+        <v>1.2724864409349164</v>
+      </c>
+      <c r="H7">
         <f>AVERAGE(B7:G7)</f>
-        <v>#DIV/0!</v>
+        <v>0.95393850305782968</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="1">
         <f>B6/0.063</f>
-        <v>0.12698412698412698</v>
+        <v>0.50643060317460309</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" ref="C8:G8" si="2">C6/0.063</f>
-        <v>0.12698412698412698</v>
+        <v>0.56439250793650786</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="2"/>
-        <v>0.12698412698412698</v>
+        <v>0.63854488888888894</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
-        <v>0.12698412698412698</v>
+        <v>0.728887746031746</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="2"/>
-        <v>0.12698412698412698</v>
+        <v>0.83542107936507914</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="2"/>
-        <v>0.12698412698412698</v>
+        <v>0.95814488888888871</v>
       </c>
       <c r="H8">
         <f>AVERAGE(B8:G8)</f>
-        <v>0.12698412698412698</v>
+        <v>0.70530361904761885</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -3656,7 +5161,7 @@
       <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -3665,129 +5170,169 @@
       <c r="F10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="e">
+      <c r="B11" s="1">
+        <v>17.440000000000001</v>
+      </c>
+      <c r="C11" s="1">
+        <v>16.559999999999999</v>
+      </c>
+      <c r="D11" s="1">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="E11" s="1">
         <f>AVERAGE(B11:D11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F11" s="1" t="e">
+        <v>16.996666666666666</v>
+      </c>
+      <c r="F11" s="1">
         <f>E11/10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G11" s="8" t="e">
+        <v>1.6996666666666667</v>
+      </c>
+      <c r="G11" s="6">
         <f>F11^2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J11" s="5"/>
+        <v>2.8888667777777779</v>
+      </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="e">
+      <c r="B12" s="1">
+        <v>17.29</v>
+      </c>
+      <c r="C12" s="1">
+        <v>17.41</v>
+      </c>
+      <c r="D12" s="1">
+        <v>17.36</v>
+      </c>
+      <c r="E12" s="1">
         <f t="shared" ref="E12:E16" si="3">AVERAGE(B12:D12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="1" t="e">
+        <v>17.353333333333335</v>
+      </c>
+      <c r="F12" s="1">
         <f t="shared" ref="F12:F16" si="4">E12/10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G12" s="8" t="e">
+        <v>1.7353333333333336</v>
+      </c>
+      <c r="G12" s="6">
         <f t="shared" ref="G12:G16" si="5">F12^2</f>
-        <v>#DIV/0!</v>
+        <v>3.0113817777777787</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="e">
+      <c r="B13" s="1">
+        <v>18.48</v>
+      </c>
+      <c r="C13" s="1">
+        <v>18.48</v>
+      </c>
+      <c r="D13" s="1">
+        <v>18.329999999999998</v>
+      </c>
+      <c r="E13" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="1" t="e">
+        <v>18.43</v>
+      </c>
+      <c r="F13" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G13" s="8" t="e">
+        <v>1.843</v>
+      </c>
+      <c r="G13" s="6">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>3.396649</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="e">
+      <c r="B14" s="1">
+        <v>19.760000000000002</v>
+      </c>
+      <c r="C14" s="1">
+        <v>19.73</v>
+      </c>
+      <c r="D14" s="1">
+        <v>19.45</v>
+      </c>
+      <c r="E14" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F14" s="1" t="e">
+        <v>19.646666666666665</v>
+      </c>
+      <c r="F14" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G14" s="8" t="e">
+        <v>1.9646666666666666</v>
+      </c>
+      <c r="G14" s="6">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>3.8599151111111105</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="e">
+      <c r="B15" s="1">
+        <v>20.87</v>
+      </c>
+      <c r="C15" s="1">
+        <v>21.12</v>
+      </c>
+      <c r="D15" s="1">
+        <v>21.05</v>
+      </c>
+      <c r="E15" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" s="1" t="e">
+        <v>21.013333333333335</v>
+      </c>
+      <c r="F15" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G15" s="8" t="e">
+        <v>2.1013333333333337</v>
+      </c>
+      <c r="G15" s="6">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>4.4156017777777796</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1" t="e">
+      <c r="B16" s="1">
+        <v>22.52</v>
+      </c>
+      <c r="C16" s="1">
+        <v>22.3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>22.42</v>
+      </c>
+      <c r="E16" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="1" t="e">
+        <v>22.413333333333338</v>
+      </c>
+      <c r="F16" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G16" s="8" t="e">
+        <v>2.2413333333333338</v>
+      </c>
+      <c r="G16" s="6">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>5.0235751111111133</v>
+      </c>
+    </row>
+    <row r="26" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G26" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
